--- a/config_debug/task_zui_zun_pai_wei_server.xlsx
+++ b/config_debug/task_zui_zun_pai_wei_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="process_data" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>id|id</t>
   </si>
@@ -286,10 +286,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_spend</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>3</t>
     </r>
@@ -382,6 +378,22 @@
       </rPr>
       <t>supreme_ranking_rank</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_game_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +639,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -662,7 +674,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -946,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K2" s="5">
         <v>2</v>
@@ -972,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K3" s="5">
         <v>2</v>
@@ -998,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" s="5">
         <v>2</v>
@@ -1024,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" s="5">
         <v>2</v>
@@ -1050,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="5">
         <v>2</v>
@@ -1076,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" s="5">
         <v>2</v>
@@ -1102,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="5">
         <v>2</v>
@@ -1128,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9" s="5">
         <v>2</v>
@@ -1154,7 +1166,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="5">
         <v>2</v>
@@ -1180,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="5">
         <v>2</v>
@@ -1206,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="5">
         <v>2</v>
@@ -1232,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="5">
         <v>2</v>
@@ -1258,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" s="5">
         <v>2</v>
@@ -1284,7 +1296,7 @@
         <v>14</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15" s="5">
         <v>2</v>
@@ -1310,7 +1322,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K16" s="5">
         <v>2</v>
@@ -1336,7 +1348,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="5">
         <v>2</v>
@@ -1362,7 +1374,7 @@
         <v>17</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="5">
         <v>2</v>
@@ -1388,7 +1400,7 @@
         <v>18</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K19" s="5">
         <v>2</v>
@@ -1414,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K20" s="5">
         <v>2</v>
@@ -1440,7 +1452,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K21" s="5">
         <v>2</v>
@@ -1466,7 +1478,7 @@
         <v>21</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K22" s="5">
         <v>2</v>
@@ -1492,7 +1504,7 @@
         <v>22</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K23" s="5">
         <v>2</v>
@@ -1518,7 +1530,7 @@
         <v>23</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K24" s="5">
         <v>2</v>
@@ -1544,7 +1556,7 @@
         <v>24</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K25" s="5">
         <v>2</v>
@@ -1570,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K26" s="5">
         <v>2</v>
@@ -1596,7 +1608,7 @@
         <v>26</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K27" s="5">
         <v>2</v>
@@ -1622,7 +1634,7 @@
         <v>27</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K28" s="5">
         <v>2</v>
@@ -1648,7 +1660,7 @@
         <v>28</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K29" s="5">
         <v>2</v>
@@ -1674,7 +1686,7 @@
         <v>29</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K30" s="5">
         <v>2</v>
@@ -1700,7 +1712,7 @@
         <v>30</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K31" s="5">
         <v>2</v>
@@ -1726,7 +1738,7 @@
         <v>31</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K32" s="5">
         <v>2</v>
@@ -1752,7 +1764,7 @@
         <v>32</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K33" s="5">
         <v>2</v>
@@ -1778,7 +1790,7 @@
         <v>33</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K34" s="5">
         <v>2</v>
@@ -1804,7 +1816,7 @@
         <v>34</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K35" s="5">
         <v>2</v>
@@ -1830,7 +1842,7 @@
         <v>35</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K36" s="5">
         <v>2</v>
@@ -1856,7 +1868,7 @@
         <v>36</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K37" s="5">
         <v>2</v>
@@ -1882,7 +1894,7 @@
         <v>37</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K38" s="5">
         <v>2</v>
@@ -1908,7 +1920,7 @@
         <v>38</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K39" s="5">
         <v>2</v>
@@ -1934,7 +1946,7 @@
         <v>39</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K40" s="5">
         <v>2</v>
@@ -2061,9 +2073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2109,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -2149,7 +2161,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -2169,16 +2181,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2189,7 +2201,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
@@ -2198,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2209,7 +2221,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -2218,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2229,7 +2241,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="5">
         <v>4</v>
@@ -2238,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2249,7 +2261,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="5">
         <v>5</v>
@@ -2258,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2278,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2289,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D11" s="5">
         <v>7</v>
@@ -2298,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -2461,11 +2473,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2521,16 +2533,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>73</v>
+        <v>91</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
       </c>
       <c r="E3" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
@@ -2538,13 +2550,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E4" s="16">
         <v>2</v>
@@ -2555,16 +2567,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1000</v>
+        <v>90</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
       </c>
       <c r="E5" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
@@ -2572,16 +2584,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1000</v>
+        <v>72</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="E6" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
@@ -2589,16 +2601,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="16">
+        <v>3</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
         <v>5</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="16">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
@@ -2606,13 +2618,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="16">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="16">
         <v>3</v>
@@ -2623,16 +2635,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="16">
-        <v>10000</v>
+        <v>90</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
       </c>
       <c r="E9" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
@@ -2640,80 +2652,170 @@
         <v>9</v>
       </c>
       <c r="B10" s="16">
+        <v>5</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16">
+        <v>5</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16">
+        <v>5</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16">
+        <v>6</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E13" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16">
+        <v>6</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16">
+        <v>7</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16">
+        <v>7</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16">
+        <v>8</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16">
+        <v>9</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
@@ -3163,10 +3265,52 @@
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
     </row>
+    <row r="84" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+    </row>
+    <row r="85" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+    </row>
+    <row r="86" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+    </row>
+    <row r="87" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+    </row>
+    <row r="88" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+    </row>
+    <row r="89" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3174,7 +3318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
@@ -4141,7 +4285,7 @@
         <v>33</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D67" s="3">
         <v>60</v>

--- a/config_debug/task_zui_zun_pai_wei_server.xlsx
+++ b/config_debug/task_zui_zun_pai_wei_server.xlsx
@@ -344,10 +344,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>charge_any</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>gun_rate</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -394,6 +390,10 @@
   </si>
   <si>
     <t>buyu_3d_spend</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_charge_any</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -413,18 +413,21 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -525,7 +528,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +580,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2075,7 +2081,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2121,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5">
         <v>8</v>
@@ -2181,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="5">
         <v>9</v>
@@ -2220,8 +2226,8 @@
       <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>83</v>
+      <c r="C7" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -2230,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2290,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2301,7 +2307,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5">
         <v>7</v>
@@ -2310,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -2536,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -2570,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
@@ -2604,7 +2610,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
@@ -2621,7 +2627,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="16">
         <v>1000</v>
@@ -2638,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -2655,7 +2661,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="16">
         <v>1000</v>
@@ -2689,7 +2695,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -2706,7 +2712,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="16">
         <v>10000</v>
@@ -2723,7 +2729,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
@@ -2740,7 +2746,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="16">
         <v>10000</v>
@@ -2774,7 +2780,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
@@ -2791,7 +2797,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
@@ -2808,7 +2814,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
@@ -4285,7 +4291,7 @@
         <v>33</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D67" s="3">
         <v>60</v>
